--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_VOIP.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_VOIP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20580" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VOIP_UI" sheetId="4" r:id="rId1"/>
-    <sheet name="VOIP" sheetId="2" r:id="rId2"/>
+    <sheet name="VOIP" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="681">
   <si>
     <t>ExistingOrderNumber</t>
   </si>
@@ -1812,13 +1812,268 @@
     <t>EditDialUserAdministration</t>
   </si>
   <si>
-    <t>voip_01_09_2020</t>
+    <t>Ciu</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>PE_editExistingCity</t>
+  </si>
+  <si>
+    <t>PE_ExistingCitySelection</t>
+  </si>
+  <si>
+    <t>PE_newCitySelection</t>
+  </si>
+  <si>
+    <t>PE_editNewCityname</t>
+  </si>
+  <si>
+    <t>PE_editNewCityCode</t>
+  </si>
+  <si>
+    <t>PE_ExistingSiteSelection</t>
+  </si>
+  <si>
+    <t>PE_newSiteSelection</t>
+  </si>
+  <si>
+    <t>PE_editExistingSite</t>
+  </si>
+  <si>
+    <t>PE_editNewSitename</t>
+  </si>
+  <si>
+    <t>PE_editNewSiteCode</t>
+  </si>
+  <si>
+    <t>PE_ExistingPremiseSelection</t>
+  </si>
+  <si>
+    <t>PE_newPremiseSelection</t>
+  </si>
+  <si>
+    <t>PE_editExistingPremise</t>
+  </si>
+  <si>
+    <t>PE_editNewPremiseName</t>
+  </si>
+  <si>
+    <t>PE_editNewPremiseCode</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Cisco 12008</t>
+  </si>
+  <si>
+    <t>(16_AE_090)</t>
+  </si>
+  <si>
+    <t>Zurich-1</t>
+  </si>
+  <si>
+    <t>PE_DeviceName1</t>
+  </si>
+  <si>
+    <t>lo0-sar4.ZRH.router.colt.net</t>
+  </si>
+  <si>
+    <t>Site A_123</t>
+  </si>
+  <si>
+    <t>SBCGatewayEdit</t>
+  </si>
+  <si>
+    <t>Non_SBCGatewayEdit</t>
+  </si>
+  <si>
+    <t>ExistingTrunkName3</t>
+  </si>
+  <si>
+    <t>VOIPOrder_88</t>
+  </si>
+  <si>
+    <t>VOIPRFI_88</t>
+  </si>
+  <si>
+    <t>VOIPOrderEdit_88</t>
+  </si>
+  <si>
+    <t>VOIPRFIEdit_88</t>
+  </si>
+  <si>
+    <t>voip_05_09_2020</t>
+  </si>
+  <si>
+    <t>ATLNASAAAE5010000800</t>
+  </si>
+  <si>
+    <t>voip_22_09_2020</t>
+  </si>
+  <si>
+    <t>Add_DRplanA</t>
+  </si>
+  <si>
+    <t>Add_DRplanB</t>
+  </si>
+  <si>
+    <t>Add_DRplanC</t>
+  </si>
+  <si>
+    <t>Add_DRplanD</t>
+  </si>
+  <si>
+    <t>Add_DRplanE</t>
+  </si>
+  <si>
+    <t>rangestart_cc</t>
+  </si>
+  <si>
+    <t>rangestart_lac</t>
+  </si>
+  <si>
+    <t>rangestart_num</t>
+  </si>
+  <si>
+    <t>rangefinish_cc</t>
+  </si>
+  <si>
+    <t>rangefinish_lac</t>
+  </si>
+  <si>
+    <t>rangefinish_num</t>
+  </si>
+  <si>
+    <t>destinationnumber_cc</t>
+  </si>
+  <si>
+    <t>destinationnumber_lac</t>
+  </si>
+  <si>
+    <t>destinationnumber_num</t>
+  </si>
+  <si>
+    <t>activate_deactivateDRplan_dropdownvalue</t>
+  </si>
+  <si>
+    <t>edit_rangestart_cc</t>
+  </si>
+  <si>
+    <t>edit_rangestart_lac</t>
+  </si>
+  <si>
+    <t>edit_rangestart_num</t>
+  </si>
+  <si>
+    <t>edit_rangefinish_cc</t>
+  </si>
+  <si>
+    <t>edit_rangefinish_lac</t>
+  </si>
+  <si>
+    <t>edit_rangefinish_num</t>
+  </si>
+  <si>
+    <t>edit_destinationnumber_cc</t>
+  </si>
+  <si>
+    <t>edit_destinationnumber_lac</t>
+  </si>
+  <si>
+    <t>edit_destinationnumber_num</t>
+  </si>
+  <si>
+    <t>edit_activate_deactivateDRplan_dropdownvalue</t>
+  </si>
+  <si>
+    <t>DRPlans_FileName</t>
+  </si>
+  <si>
+    <t>Browserfiles_Downloadspath</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>5805</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>935</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>8495</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>5659</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>4673</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>5567</t>
+  </si>
+  <si>
+    <t>Deactivate</t>
+  </si>
+  <si>
+    <t>DRPlans_VLE_Tgid_2298391994</t>
+  </si>
+  <si>
+    <t>C:\\Users\\SKathiresan-Adm\\Downloads</t>
+  </si>
+  <si>
+    <t>D:\APTproject5\src\TestDr3.csv</t>
+  </si>
+  <si>
+    <t>DRusingTDM_checkbox</t>
+  </si>
+  <si>
+    <t>edit_DRusingTDM_checkbox</t>
+  </si>
+  <si>
+    <t>Site A_138</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -1980,7 +2235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2003,6 +2258,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2010,7 +2278,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2172,9 +2440,70 @@
     <xf numFmtId="49" fontId="1" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2236,7 +2565,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2271,7 +2600,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2448,7 +2777,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2458,8 +2787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:VH2"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="IK1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="IO14" sqref="IO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3920,7 +4249,7 @@
     </row>
     <row r="2" spans="1:395" s="7" customFormat="1" ht="45">
       <c r="A2" s="53" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>581</v>
@@ -5098,10 +5427,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:VV2"/>
+  <dimension ref="A1:YS2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5120,275 +5449,262 @@
     <col min="12" max="12" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="28.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="22.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="17.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="19" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="28" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="17.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="20.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="22.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="17.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="30" max="30" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="30.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.28515625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="13.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="51" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="16.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="12.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="9.140625" style="1" collapsed="1"/>
-    <col min="57" max="57" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="11" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="26.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="14" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="19.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="11" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="22.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="17.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="17.85546875" style="1" customWidth="1"/>
-    <col min="73" max="73" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="84" width="10.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="85" max="85" width="28.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="86" max="86" width="28.140625" style="1" customWidth="1"/>
-    <col min="87" max="87" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="90" width="21" style="1" customWidth="1"/>
-    <col min="91" max="91" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="99" width="33.42578125" style="1" customWidth="1"/>
-    <col min="100" max="100" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="101" max="103" width="19.42578125" style="1" customWidth="1"/>
-    <col min="104" max="104" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.28515625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="13.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="47" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="16.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="12.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="9.140625" style="1" collapsed="1"/>
+    <col min="53" max="53" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="21.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="26.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="14" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="19.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="11" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="22.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="17.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="17.85546875" style="1" customWidth="1"/>
+    <col min="69" max="69" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="12.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="80" max="80" width="10.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="81" max="81" width="28.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="85" width="21" style="1" customWidth="1"/>
+    <col min="86" max="86" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="94" width="33.42578125" style="1" customWidth="1"/>
+    <col min="95" max="95" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="98" width="19.42578125" style="1" customWidth="1"/>
+    <col min="99" max="99" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="31.42578125" style="1" customWidth="1"/>
+    <col min="104" max="104" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="31.42578125" style="1" customWidth="1"/>
-    <col min="109" max="109" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="31.42578125" style="1" customWidth="1"/>
-    <col min="114" max="114" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="25" style="1" customWidth="1"/>
-    <col min="125" max="125" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="30.28515625" style="1" customWidth="1"/>
-    <col min="130" max="130" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="25" style="1" customWidth="1"/>
-    <col min="132" max="132" width="38.140625" style="1" customWidth="1"/>
-    <col min="133" max="133" width="25" style="1" customWidth="1"/>
-    <col min="134" max="134" width="28.85546875" style="1" customWidth="1"/>
-    <col min="135" max="135" width="34.5703125" style="1" customWidth="1"/>
-    <col min="136" max="140" width="25" style="1" customWidth="1"/>
-    <col min="141" max="141" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="142" max="167" width="31.7109375" style="1" customWidth="1"/>
-    <col min="168" max="168" width="37.140625" style="1" customWidth="1"/>
-    <col min="169" max="176" width="31.7109375" style="1" customWidth="1"/>
-    <col min="177" max="177" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="15.28515625" style="1" customWidth="1"/>
-    <col min="179" max="188" width="31.7109375" style="1" customWidth="1"/>
-    <col min="189" max="189" width="36" style="1" customWidth="1"/>
-    <col min="190" max="192" width="31.7109375" style="1" customWidth="1"/>
-    <col min="193" max="193" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="30.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="18.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="197" max="197" width="26.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="198" max="199" width="26.85546875" style="1" customWidth="1"/>
-    <col min="200" max="200" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="201" max="201" width="30.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="202" max="214" width="30.140625" style="1" customWidth="1"/>
-    <col min="215" max="215" width="33" style="1" customWidth="1"/>
-    <col min="216" max="216" width="30.140625" style="1" customWidth="1"/>
-    <col min="217" max="217" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="220" max="223" width="34.28515625" style="1" customWidth="1"/>
-    <col min="224" max="224" width="14.7109375" style="1" customWidth="1"/>
-    <col min="225" max="225" width="18" style="1" customWidth="1"/>
-    <col min="226" max="226" width="19" style="1" customWidth="1"/>
-    <col min="227" max="227" width="27" style="1" customWidth="1"/>
-    <col min="228" max="228" width="14.140625" style="1" customWidth="1"/>
-    <col min="229" max="229" width="13" style="1" customWidth="1"/>
-    <col min="230" max="230" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="22.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="239" max="261" width="34.28515625" style="1" customWidth="1"/>
-    <col min="262" max="262" width="26.28515625" style="1" customWidth="1"/>
-    <col min="263" max="263" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="22.28515625" style="1" customWidth="1"/>
-    <col min="267" max="267" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="16.85546875" style="1" customWidth="1"/>
-    <col min="269" max="269" width="22" style="1" customWidth="1"/>
-    <col min="270" max="270" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="25" style="1" customWidth="1"/>
-    <col min="275" max="275" width="26.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="276" max="276" width="23.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="277" max="277" width="18.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="278" max="278" width="25.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="279" max="279" width="24.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="280" max="281" width="24.7109375" style="1" customWidth="1"/>
-    <col min="282" max="282" width="20.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="283" max="283" width="25.85546875" style="1" customWidth="1"/>
-    <col min="284" max="284" width="30.5703125" style="1" customWidth="1"/>
-    <col min="285" max="290" width="25.85546875" style="1" customWidth="1"/>
-    <col min="291" max="291" width="32.7109375" style="1" customWidth="1"/>
-    <col min="292" max="292" width="22.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="293" max="293" width="19" style="1" customWidth="1" collapsed="1"/>
-    <col min="294" max="294" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="295" max="295" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="296" max="296" width="24.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="297" max="297" width="22.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="298" max="298" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="299" max="300" width="39" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="301" max="301" width="39" style="1" customWidth="1"/>
-    <col min="302" max="302" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="303" max="303" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="304" max="304" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="305" max="310" width="24.42578125" style="1" customWidth="1"/>
-    <col min="311" max="311" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="312" max="317" width="24.42578125" style="1" customWidth="1"/>
-    <col min="318" max="318" width="28.5703125" style="1" customWidth="1"/>
-    <col min="319" max="321" width="24.42578125" style="1" customWidth="1"/>
-    <col min="322" max="322" width="31.28515625" style="1" customWidth="1"/>
-    <col min="323" max="325" width="24.42578125" style="1" customWidth="1"/>
-    <col min="326" max="326" width="29.140625" style="1" customWidth="1"/>
-    <col min="327" max="327" width="35.140625" style="1" customWidth="1"/>
-    <col min="328" max="333" width="24.42578125" style="1" customWidth="1"/>
-    <col min="334" max="334" width="33.42578125" style="1" customWidth="1"/>
-    <col min="335" max="336" width="24.42578125" style="1" customWidth="1"/>
-    <col min="337" max="337" width="29.85546875" style="1" customWidth="1"/>
-    <col min="338" max="338" width="24.42578125" style="1" customWidth="1"/>
-    <col min="339" max="339" width="32.85546875" style="1" customWidth="1"/>
-    <col min="340" max="341" width="24.42578125" style="1" customWidth="1"/>
-    <col min="342" max="342" width="38.42578125" style="1" customWidth="1"/>
-    <col min="343" max="343" width="38" style="1" customWidth="1"/>
-    <col min="344" max="344" width="34.85546875" style="1" customWidth="1"/>
-    <col min="345" max="346" width="24.42578125" style="1" customWidth="1"/>
-    <col min="347" max="347" width="26.28515625" style="1" customWidth="1"/>
-    <col min="348" max="348" width="82.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="349" max="349" width="26.28515625" style="1" customWidth="1"/>
-    <col min="350" max="350" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="351" max="352" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="353" max="353" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="354" max="354" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="355" max="355" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="356" max="356" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="357" max="357" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="358" max="358" width="24.5703125" style="1" customWidth="1"/>
-    <col min="359" max="359" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="360" max="360" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="361" max="361" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="362" max="362" width="38.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="363" max="363" width="20.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="364" max="364" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="365" max="365" width="29.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="366" max="366" width="25.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="367" max="367" width="27" style="1" customWidth="1" collapsed="1"/>
-    <col min="368" max="368" width="23" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="369" max="369" width="30.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="370" max="370" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="371" max="371" width="30.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="372" max="372" width="25.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="373" max="373" width="28.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="374" max="374" width="18.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="375" max="375" width="22.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="376" max="376" width="25.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="377" max="377" width="17" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="378" max="378" width="24.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="379" max="379" width="19.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="380" max="380" width="25.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="381" max="381" width="23.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="382" max="382" width="31.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="383" max="383" width="25.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="384" max="384" width="23" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="385" max="385" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="386" max="386" width="36" style="1" customWidth="1"/>
-    <col min="387" max="387" width="26.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="388" max="388" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="389" max="389" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="390" max="390" width="36.42578125" style="1" customWidth="1"/>
-    <col min="391" max="391" width="30.42578125" style="1" customWidth="1"/>
-    <col min="392" max="392" width="30" style="1" customWidth="1"/>
-    <col min="393" max="393" width="43.28515625" style="1" customWidth="1"/>
-    <col min="394" max="394" width="53.7109375" style="1" customWidth="1"/>
-    <col min="395" max="395" width="34.140625" style="1" customWidth="1"/>
-    <col min="396" max="396" width="38.42578125" style="1" customWidth="1"/>
-    <col min="397" max="397" width="39" style="1" customWidth="1" collapsed="1"/>
-    <col min="398" max="398" width="35.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="399" max="399" width="37.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="400" max="400" width="36.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="401" max="401" width="34" style="1" customWidth="1" collapsed="1"/>
-    <col min="402" max="402" width="22.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="403" max="403" width="18.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="404" max="404" width="24.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="405" max="405" width="24.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="406" max="406" width="23.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="407" max="407" width="25.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="408" max="594" width="9.140625" style="1"/>
-    <col min="595" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="109" max="109" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="25" style="1" customWidth="1"/>
+    <col min="120" max="120" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="30.28515625" style="1" customWidth="1"/>
+    <col min="125" max="125" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="25" style="1" customWidth="1"/>
+    <col min="127" max="127" width="38.140625" style="1" customWidth="1"/>
+    <col min="128" max="128" width="25" style="1" customWidth="1"/>
+    <col min="129" max="129" width="28.85546875" style="1" customWidth="1"/>
+    <col min="130" max="130" width="34.5703125" style="1" customWidth="1"/>
+    <col min="131" max="135" width="25" style="1" customWidth="1"/>
+    <col min="136" max="136" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="137" max="174" width="31.7109375" style="1" customWidth="1"/>
+    <col min="175" max="175" width="37.140625" style="1" customWidth="1"/>
+    <col min="176" max="183" width="31.7109375" style="1" customWidth="1"/>
+    <col min="184" max="184" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="15.28515625" style="1" customWidth="1"/>
+    <col min="186" max="195" width="31.7109375" style="1" customWidth="1"/>
+    <col min="196" max="196" width="36" style="1" customWidth="1"/>
+    <col min="197" max="199" width="31.7109375" style="1" customWidth="1"/>
+    <col min="200" max="200" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="18.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="204" max="204" width="26.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="205" max="206" width="26.85546875" style="1" customWidth="1"/>
+    <col min="207" max="207" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="208" max="208" width="30.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="209" max="210" width="30.140625" style="1" customWidth="1"/>
+    <col min="211" max="211" width="33" style="1" customWidth="1"/>
+    <col min="212" max="212" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="30.140625" style="1" customWidth="1"/>
+    <col min="214" max="214" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="217" max="219" width="34.28515625" style="1" customWidth="1"/>
+    <col min="220" max="220" width="26.28515625" style="1" customWidth="1"/>
+    <col min="221" max="221" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="22.28515625" style="1" customWidth="1"/>
+    <col min="225" max="225" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="16.85546875" style="1" customWidth="1"/>
+    <col min="227" max="227" width="22" style="1" customWidth="1"/>
+    <col min="228" max="228" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="25" style="1" customWidth="1"/>
+    <col min="233" max="233" width="26.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="234" max="234" width="23.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="235" max="235" width="18.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="236" max="236" width="25.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="237" max="237" width="24.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="238" max="239" width="24.7109375" style="1" customWidth="1"/>
+    <col min="240" max="240" width="20.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="241" max="241" width="25.85546875" style="1" customWidth="1"/>
+    <col min="242" max="242" width="30.5703125" style="1" customWidth="1"/>
+    <col min="243" max="248" width="25.85546875" style="1" customWidth="1"/>
+    <col min="249" max="249" width="32.7109375" style="1" customWidth="1"/>
+    <col min="250" max="250" width="22.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="251" max="251" width="19" style="1" customWidth="1" collapsed="1"/>
+    <col min="252" max="252" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="253" max="253" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="254" max="254" width="24.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="255" max="255" width="22.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="256" max="256" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="257" max="258" width="39" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="259" max="259" width="39" style="1" customWidth="1"/>
+    <col min="260" max="260" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="24.42578125" style="1" customWidth="1"/>
+    <col min="264" max="264" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="265" max="275" width="24.42578125" style="1" customWidth="1"/>
+    <col min="276" max="276" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="278" max="284" width="24.42578125" style="1" customWidth="1"/>
+    <col min="285" max="285" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="286" max="288" width="24.42578125" style="1" customWidth="1"/>
+    <col min="289" max="289" width="31.7109375" style="1" customWidth="1"/>
+    <col min="290" max="292" width="24.42578125" style="1" customWidth="1"/>
+    <col min="293" max="293" width="30.28515625" style="1" customWidth="1"/>
+    <col min="294" max="294" width="34.140625" style="1" customWidth="1"/>
+    <col min="295" max="299" width="24.42578125" style="1" customWidth="1"/>
+    <col min="300" max="300" width="30.7109375" style="1" customWidth="1"/>
+    <col min="301" max="301" width="39.140625" style="1" customWidth="1"/>
+    <col min="302" max="305" width="24.42578125" style="1" customWidth="1"/>
+    <col min="306" max="306" width="30.7109375" style="1" customWidth="1"/>
+    <col min="307" max="308" width="24.42578125" style="1" customWidth="1"/>
+    <col min="309" max="309" width="44.140625" style="1" customWidth="1"/>
+    <col min="310" max="310" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="311" max="311" width="34.140625" style="1" customWidth="1"/>
+    <col min="312" max="313" width="24.42578125" style="1" customWidth="1"/>
+    <col min="314" max="314" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="315" max="315" width="82.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="316" max="316" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="317" max="317" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="318" max="319" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="320" max="320" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="321" max="322" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="323" max="323" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="324" max="324" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="325" max="325" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="326" max="326" width="26.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="327" max="327" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="328" max="328" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="329" max="329" width="25.28515625" style="1" customWidth="1"/>
+    <col min="330" max="330" width="27.5703125" style="1" customWidth="1"/>
+    <col min="331" max="331" width="26.42578125" style="1" customWidth="1"/>
+    <col min="332" max="332" width="28.140625" style="1" customWidth="1"/>
+    <col min="333" max="333" width="27.42578125" style="1" customWidth="1"/>
+    <col min="334" max="334" width="30.7109375" style="1" customWidth="1"/>
+    <col min="335" max="335" width="30" style="1" customWidth="1"/>
+    <col min="336" max="336" width="33.140625" style="1" customWidth="1"/>
+    <col min="337" max="337" width="27" style="1" customWidth="1"/>
+    <col min="338" max="338" width="34.5703125" style="1" customWidth="1"/>
+    <col min="339" max="339" width="31.28515625" style="1" customWidth="1"/>
+    <col min="340" max="340" width="27.85546875" style="1" customWidth="1"/>
+    <col min="341" max="341" width="28.5703125" style="1" customWidth="1"/>
+    <col min="342" max="342" width="25.5703125" style="1" customWidth="1"/>
+    <col min="343" max="344" width="20.5703125" style="1" customWidth="1"/>
+    <col min="345" max="345" width="19.85546875" style="1" customWidth="1"/>
+    <col min="346" max="346" width="36.42578125" style="1" customWidth="1"/>
+    <col min="347" max="347" width="20.42578125" style="1" customWidth="1"/>
+    <col min="348" max="348" width="23" style="1" customWidth="1"/>
+    <col min="349" max="349" width="19" style="1" customWidth="1"/>
+    <col min="350" max="350" width="16.85546875" style="1" customWidth="1"/>
+    <col min="351" max="351" width="27.85546875" style="1" customWidth="1"/>
+    <col min="352" max="352" width="21.140625" style="1" customWidth="1"/>
+    <col min="353" max="353" width="25.28515625" style="1" customWidth="1"/>
+    <col min="354" max="354" width="20.5703125" style="1" customWidth="1"/>
+    <col min="355" max="355" width="31" style="1" customWidth="1"/>
+    <col min="356" max="356" width="31.7109375" style="1" customWidth="1"/>
+    <col min="357" max="357" width="18.5703125" style="1" customWidth="1"/>
+    <col min="358" max="359" width="35.140625" style="1" customWidth="1"/>
+    <col min="360" max="360" width="38.42578125" style="1" customWidth="1"/>
+    <col min="361" max="361" width="24.85546875" style="1" customWidth="1"/>
+    <col min="362" max="362" width="29.7109375" style="1" customWidth="1"/>
+    <col min="363" max="363" width="21.140625" style="1" customWidth="1"/>
+    <col min="364" max="364" width="23.140625" style="1" customWidth="1"/>
+    <col min="365" max="365" width="20.28515625" style="1" customWidth="1"/>
+    <col min="366" max="366" width="18.42578125" style="1" customWidth="1"/>
+    <col min="367" max="368" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="369" max="369" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="370" max="370" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="371" max="371" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="372" max="372" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="373" max="373" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="374" max="374" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="375" max="375" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="376" max="376" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="377" max="377" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="378" max="378" width="9.140625" style="1"/>
+    <col min="379" max="379" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="380" max="393" width="9.140625" style="1"/>
+    <col min="394" max="394" width="40" style="1" bestFit="1" customWidth="1"/>
+    <col min="395" max="669" width="9.140625" style="1"/>
+    <col min="670" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:407" s="48" customFormat="1" ht="30">
+    <row r="1" spans="1:394" s="48" customFormat="1" ht="30">
       <c r="A1" s="23" t="s">
         <v>575</v>
       </c>
@@ -5443,2383 +5759,2288 @@
       <c r="R1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="25" t="s">
-        <v>499</v>
+      <c r="S1" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>25</v>
       </c>
       <c r="U1" s="30" t="s">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="V1" s="30" t="s">
-        <v>25</v>
+        <v>497</v>
       </c>
       <c r="W1" s="30" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X1" s="30" t="s">
-        <v>497</v>
-      </c>
-      <c r="Y1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB1" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC1" s="28" t="s">
+      <c r="Y1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="Z1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="AE1" s="25" t="s">
+      <c r="AA1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="AF1" s="25" t="s">
+      <c r="AB1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="AG1" s="26" t="s">
+      <c r="AC1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="29" t="s">
+      <c r="AD1" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="AI1" s="30" t="s">
+      <c r="AE1" s="30" t="s">
         <v>21</v>
       </c>
+      <c r="AF1" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI1" s="31" t="s">
+        <v>80</v>
+      </c>
       <c r="AJ1" s="31" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AK1" s="31" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="AL1" s="31" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AM1" s="31" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AN1" s="31" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AO1" s="31" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AP1" s="31" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AQ1" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR1" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS1" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT1" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU1" s="31" t="s">
         <v>89</v>
       </c>
+      <c r="AR1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU1" s="23" t="s">
+        <v>31</v>
+      </c>
       <c r="AV1" s="23" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AW1" s="23" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="AX1" s="23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AY1" s="23" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AZ1" s="23" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="BA1" s="23" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="BB1" s="23" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="BC1" s="23" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="BD1" s="23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="BE1" s="23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="BF1" s="23" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="BG1" s="23" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="BH1" s="23" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="BI1" s="23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="BJ1" s="23" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="BK1" s="23" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="BL1" s="23" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="BM1" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="BN1" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="BO1" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="BR1" s="30" t="s">
+      <c r="BN1" s="30" t="s">
         <v>583</v>
       </c>
+      <c r="BO1" s="54" t="s">
+        <v>584</v>
+      </c>
+      <c r="BP1" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ1" s="54" t="s">
+        <v>585</v>
+      </c>
+      <c r="BR1" s="54" t="s">
+        <v>586</v>
+      </c>
       <c r="BS1" s="54" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="BT1" s="54" t="s">
-        <v>56</v>
+        <v>588</v>
       </c>
       <c r="BU1" s="54" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="BV1" s="54" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="BW1" s="54" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="BX1" s="54" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="BY1" s="54" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="BZ1" s="54" t="s">
-        <v>590</v>
-      </c>
-      <c r="CA1" s="54" t="s">
-        <v>591</v>
-      </c>
-      <c r="CB1" s="54" t="s">
-        <v>592</v>
-      </c>
-      <c r="CC1" s="54" t="s">
-        <v>593</v>
-      </c>
-      <c r="CD1" s="54" t="s">
         <v>594</v>
       </c>
-      <c r="CE1" s="31" t="s">
+      <c r="CA1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="CF1" s="31" t="s">
+      <c r="CB1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="CG1" s="31" t="s">
+      <c r="CC1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="CH1" s="30" t="s">
-        <v>530</v>
-      </c>
-      <c r="CI1" s="32" t="s">
+      <c r="CD1" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="CJ1" s="32" t="s">
+      <c r="CE1" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="CK1" s="33" t="s">
+      <c r="CF1" s="55" t="s">
         <v>507</v>
       </c>
-      <c r="CL1" s="33" t="s">
+      <c r="CG1" s="55" t="s">
         <v>506</v>
       </c>
-      <c r="CM1" s="32" t="s">
+      <c r="CH1" s="32" t="s">
         <v>105</v>
       </c>
+      <c r="CI1" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="CJ1" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="CK1" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="CL1" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="CM1" s="34" t="s">
+        <v>417</v>
+      </c>
       <c r="CN1" s="34" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="CO1" s="34" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="CP1" s="34" t="s">
-        <v>415</v>
-      </c>
-      <c r="CQ1" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="CR1" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="CS1" s="34" t="s">
-        <v>418</v>
-      </c>
-      <c r="CT1" s="34" t="s">
-        <v>419</v>
-      </c>
-      <c r="CU1" s="34" t="s">
         <v>420</v>
       </c>
-      <c r="CV1" s="32" t="s">
+      <c r="CQ1" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="CW1" s="32" t="s">
+      <c r="CR1" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="CX1" s="32" t="s">
+      <c r="CS1" s="32" t="s">
         <v>508</v>
       </c>
-      <c r="CY1" s="32" t="s">
+      <c r="CT1" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="CZ1" s="32" t="s">
+      <c r="CU1" s="32" t="s">
         <v>112</v>
       </c>
+      <c r="CV1" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="CW1" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="CX1" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="CY1" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="CZ1" s="35" t="s">
+        <v>123</v>
+      </c>
       <c r="DA1" s="35" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="DB1" s="35" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="DC1" s="35" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="DD1" s="35" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="DE1" s="35" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="DF1" s="35" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="DG1" s="35" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="DH1" s="35" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="DI1" s="35" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="DJ1" s="35" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="DK1" s="35" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="DL1" s="35" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="DM1" s="35" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="DN1" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="DO1" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="DP1" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="DQ1" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="DR1" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="DS1" s="35" t="s">
         <v>138</v>
       </c>
+      <c r="DO1" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="DP1" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="DQ1" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="DR1" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="DS1" s="28" t="s">
+        <v>148</v>
+      </c>
       <c r="DT1" s="28" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="DU1" s="28" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="DV1" s="28" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="DW1" s="28" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="DX1" s="28" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="DY1" s="28" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="DZ1" s="28" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="EA1" s="28" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="EB1" s="28" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="EC1" s="28" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="ED1" s="28" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="EE1" s="28" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="EF1" s="28" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="EG1" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="EH1" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="EI1" s="28" t="s">
-        <v>159</v>
+        <v>162</v>
+      </c>
+      <c r="EH1" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="EI1" s="23" t="s">
+        <v>102</v>
       </c>
       <c r="EJ1" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="EK1" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="EL1" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="EM1" s="30" t="s">
-        <v>533</v>
-      </c>
-      <c r="EN1" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="EO1" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="EP1" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="EK1" s="55" t="s">
         <v>513</v>
       </c>
-      <c r="EQ1" s="33" t="s">
-        <v>514</v>
-      </c>
-      <c r="ER1" s="23" t="s">
+      <c r="EL1" s="55" t="s">
+        <v>619</v>
+      </c>
+      <c r="EM1" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="ES1" s="34" t="s">
+      <c r="EN1" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="ET1" s="34" t="s">
+      <c r="EO1" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="EU1" s="34" t="s">
+      <c r="EP1" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="EV1" s="34" t="s">
+      <c r="EQ1" s="34" t="s">
         <v>425</v>
       </c>
-      <c r="EW1" s="34" t="s">
+      <c r="ER1" s="34" t="s">
         <v>424</v>
       </c>
-      <c r="EX1" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="EY1" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="EZ1" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="FA1" s="23" t="s">
+      <c r="ES1" s="71" t="s">
+        <v>600</v>
+      </c>
+      <c r="ET1" s="71" t="s">
+        <v>601</v>
+      </c>
+      <c r="EU1" s="71" t="s">
+        <v>599</v>
+      </c>
+      <c r="EV1" s="71" t="s">
+        <v>602</v>
+      </c>
+      <c r="EW1" s="71" t="s">
+        <v>603</v>
+      </c>
+      <c r="EX1" s="71" t="s">
+        <v>604</v>
+      </c>
+      <c r="EY1" s="71" t="s">
+        <v>605</v>
+      </c>
+      <c r="EZ1" s="71" t="s">
+        <v>606</v>
+      </c>
+      <c r="FA1" s="71" t="s">
+        <v>607</v>
+      </c>
+      <c r="FB1" s="71" t="s">
+        <v>608</v>
+      </c>
+      <c r="FC1" s="71" t="s">
+        <v>609</v>
+      </c>
+      <c r="FD1" s="71" t="s">
+        <v>610</v>
+      </c>
+      <c r="FE1" s="71" t="s">
+        <v>611</v>
+      </c>
+      <c r="FF1" s="71" t="s">
+        <v>612</v>
+      </c>
+      <c r="FG1" s="71" t="s">
+        <v>613</v>
+      </c>
+      <c r="FH1" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="FB1" s="23" t="s">
+      <c r="FI1" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="FC1" s="23" t="s">
+      <c r="FJ1" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="FD1" s="23" t="s">
+      <c r="FK1" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="FE1" s="23" t="s">
+      <c r="FL1" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="FF1" s="23" t="s">
+      <c r="FM1" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="FG1" s="23" t="s">
+      <c r="FN1" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="FH1" s="23" t="s">
+      <c r="FO1" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="FI1" s="23" t="s">
+      <c r="FP1" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="FJ1" s="23" t="s">
+      <c r="FQ1" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="FK1" s="23" t="s">
+      <c r="FR1" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="FL1" s="23" t="s">
+      <c r="FS1" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="FM1" s="23" t="s">
+      <c r="FT1" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="FN1" s="23" t="s">
+      <c r="FU1" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="FO1" s="23" t="s">
+      <c r="FV1" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="FP1" s="23" t="s">
+      <c r="FW1" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="FQ1" s="23" t="s">
+      <c r="FX1" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="FR1" s="23" t="s">
+      <c r="FY1" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="FS1" s="23" t="s">
+      <c r="FZ1" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="FT1" s="23" t="s">
+      <c r="GA1" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="FU1" s="23" t="s">
+      <c r="GB1" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="FV1" s="23" t="s">
+      <c r="GC1" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="FW1" s="23" t="s">
+      <c r="GD1" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="FX1" s="23" t="s">
+      <c r="GE1" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="FY1" s="23" t="s">
+      <c r="GF1" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="FZ1" s="23" t="s">
+      <c r="GG1" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="GA1" s="28" t="s">
+      <c r="GH1" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="GB1" s="28" t="s">
+      <c r="GI1" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="GC1" s="28" t="s">
+      <c r="GJ1" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="GD1" s="28" t="s">
+      <c r="GK1" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="GE1" s="28" t="s">
+      <c r="GL1" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="GF1" s="28" t="s">
+      <c r="GM1" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="GG1" s="28" t="s">
+      <c r="GN1" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="GH1" s="28" t="s">
+      <c r="GO1" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="GI1" s="28" t="s">
+      <c r="GP1" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="GJ1" s="28" t="s">
+      <c r="GQ1" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="GK1" s="28" t="s">
+      <c r="GR1" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="GL1" s="28" t="s">
+      <c r="GS1" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="GM1" s="28" t="s">
+      <c r="GT1" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="GN1" s="28" t="s">
+      <c r="GU1" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="GO1" s="28" t="s">
+      <c r="GV1" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="GP1" s="28" t="s">
+      <c r="GW1" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="GQ1" s="28" t="s">
+      <c r="GX1" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="GR1" s="28" t="s">
+      <c r="GY1" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="GS1" s="28" t="s">
+      <c r="GZ1" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="GT1" s="28" t="s">
+      <c r="HA1" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="GU1" s="28" t="s">
+      <c r="HB1" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="GV1" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="GW1" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="GX1" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="GY1" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="GZ1" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="HA1" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="HB1" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="HC1" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="HD1" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="HE1" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="HF1" s="34" t="s">
-        <v>228</v>
+      <c r="HC1" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="HD1" s="38" t="s">
+        <v>546</v>
+      </c>
+      <c r="HE1" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="HF1" s="37" t="s">
+        <v>349</v>
       </c>
       <c r="HG1" s="37" t="s">
-        <v>346</v>
-      </c>
-      <c r="HH1" s="38" t="s">
-        <v>347</v>
-      </c>
-      <c r="HI1" s="37" t="s">
-        <v>349</v>
-      </c>
-      <c r="HJ1" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="HK1" s="37" t="s">
+      <c r="HH1" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="HL1" s="38" t="s">
-        <v>545</v>
-      </c>
-      <c r="HM1" s="38" t="s">
-        <v>546</v>
-      </c>
-      <c r="HN1" s="39" t="s">
+      <c r="HI1" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="HJ1" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="HK1" s="38" t="s">
+        <v>548</v>
+      </c>
+      <c r="HL1" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="HM1" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="HN1" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="HO1" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="HP1" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="HQ1" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="HR1" s="38" t="s">
+        <v>571</v>
+      </c>
+      <c r="HS1" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="HT1" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="HU1" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="HV1" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="HW1" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="HX1" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="HY1" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="HZ1" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="IA1" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="IB1" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="IC1" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="ID1" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="IE1" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="IF1" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="IG1" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="IH1" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="II1" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="IJ1" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="IK1" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="IL1" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="IM1" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="IN1" s="41" t="s">
+        <v>436</v>
+      </c>
+      <c r="IO1" s="41" t="s">
+        <v>435</v>
+      </c>
+      <c r="IP1" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="IQ1" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="IR1" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="IS1" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="IT1" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="IU1" s="41" t="s">
+        <v>442</v>
+      </c>
+      <c r="IV1" s="41" t="s">
+        <v>443</v>
+      </c>
+      <c r="IW1" s="43" t="s">
+        <v>438</v>
+      </c>
+      <c r="IX1" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="IY1" s="44" t="s">
+        <v>440</v>
+      </c>
+      <c r="IZ1" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="JA1" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="JB1" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="JC1" s="54" t="s">
+        <v>678</v>
+      </c>
+      <c r="JD1" s="54" t="s">
+        <v>679</v>
+      </c>
+      <c r="JE1" s="54"/>
+      <c r="JF1" s="54"/>
+      <c r="JG1" s="54"/>
+      <c r="JH1" s="54"/>
+      <c r="JI1" s="54"/>
+      <c r="JJ1" s="54"/>
+      <c r="JK1" s="40" t="s">
+        <v>453</v>
+      </c>
+      <c r="JL1" s="40" t="s">
+        <v>454</v>
+      </c>
+      <c r="JM1" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="JN1" s="40" t="s">
+        <v>456</v>
+      </c>
+      <c r="JO1" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="JP1" s="38" t="s">
+        <v>569</v>
+      </c>
+      <c r="JQ1" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="JR1" s="38" t="s">
+        <v>622</v>
+      </c>
+      <c r="JS1" s="38" t="s">
+        <v>623</v>
+      </c>
+      <c r="JT1" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="JU1" s="40" t="s">
+        <v>460</v>
+      </c>
+      <c r="JV1" s="40" t="s">
+        <v>461</v>
+      </c>
+      <c r="JW1" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="JX1" s="40" t="s">
+        <v>463</v>
+      </c>
+      <c r="JY1" s="40" t="s">
+        <v>464</v>
+      </c>
+      <c r="JZ1" s="40" t="s">
+        <v>465</v>
+      </c>
+      <c r="KA1" s="40" t="s">
+        <v>466</v>
+      </c>
+      <c r="KB1" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="KC1" s="40" t="s">
+        <v>468</v>
+      </c>
+      <c r="KD1" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="KE1" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="KF1" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="KG1" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="KH1" s="41" t="s">
+        <v>473</v>
+      </c>
+      <c r="KI1" s="41" t="s">
+        <v>474</v>
+      </c>
+      <c r="KJ1" s="41" t="s">
+        <v>475</v>
+      </c>
+      <c r="KK1" s="42" t="s">
+        <v>476</v>
+      </c>
+      <c r="KL1" s="42" t="s">
+        <v>477</v>
+      </c>
+      <c r="KM1" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="KN1" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="KO1" s="41" t="s">
+        <v>480</v>
+      </c>
+      <c r="KP1" s="41" t="s">
+        <v>481</v>
+      </c>
+      <c r="KQ1" s="41" t="s">
+        <v>482</v>
+      </c>
+      <c r="KR1" s="42" t="s">
+        <v>483</v>
+      </c>
+      <c r="KS1" s="42" t="s">
+        <v>484</v>
+      </c>
+      <c r="KT1" s="42" t="s">
+        <v>485</v>
+      </c>
+      <c r="KU1" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="KV1" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="KW1" s="43" t="s">
+        <v>488</v>
+      </c>
+      <c r="KX1" s="43" t="s">
+        <v>489</v>
+      </c>
+      <c r="KY1" s="44" t="s">
+        <v>490</v>
+      </c>
+      <c r="KZ1" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="LA1" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="LB1" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="LC1" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="LD1" s="30" t="s">
+        <v>624</v>
+      </c>
+      <c r="LE1" s="70" t="s">
+        <v>549</v>
+      </c>
+      <c r="LF1" s="70" t="s">
+        <v>550</v>
+      </c>
+      <c r="LG1" s="70" t="s">
+        <v>550</v>
+      </c>
+      <c r="LH1" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="LI1" s="39" t="s">
+        <v>552</v>
+      </c>
+      <c r="LJ1" s="39" t="s">
+        <v>553</v>
+      </c>
+      <c r="LK1" s="39" t="s">
+        <v>554</v>
+      </c>
+      <c r="LL1" s="39" t="s">
+        <v>555</v>
+      </c>
+      <c r="LM1" s="39" t="s">
+        <v>556</v>
+      </c>
+      <c r="LN1" s="39" t="s">
+        <v>557</v>
+      </c>
+      <c r="LO1" s="39" t="s">
+        <v>558</v>
+      </c>
+      <c r="LP1" s="39" t="s">
+        <v>559</v>
+      </c>
+      <c r="LQ1" s="41" t="s">
         <v>352</v>
       </c>
-      <c r="HO1" s="39" t="s">
+      <c r="LR1" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="HP1" s="39" t="s">
+      <c r="LS1" s="41" t="s">
         <v>367</v>
       </c>
-      <c r="HQ1" s="39" t="s">
+      <c r="LT1" s="41" t="s">
         <v>368</v>
       </c>
-      <c r="HR1" s="39" t="s">
+      <c r="LU1" s="41" t="s">
         <v>369</v>
       </c>
-      <c r="HS1" s="39" t="s">
+      <c r="LV1" s="41" t="s">
         <v>370</v>
       </c>
-      <c r="HT1" s="39" t="s">
+      <c r="LW1" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="HU1" s="39" t="s">
+      <c r="LX1" s="41" t="s">
         <v>372</v>
       </c>
-      <c r="HV1" s="39" t="s">
+      <c r="LY1" s="41" t="s">
         <v>373</v>
       </c>
-      <c r="HW1" s="39" t="s">
+      <c r="LZ1" s="41" t="s">
         <v>374</v>
       </c>
-      <c r="HX1" s="39" t="s">
+      <c r="MA1" s="41" t="s">
         <v>375</v>
       </c>
-      <c r="HY1" s="39" t="s">
+      <c r="MB1" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="HZ1" s="39" t="s">
+      <c r="MC1" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="IA1" s="39" t="s">
+      <c r="MD1" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="IB1" s="39" t="s">
+      <c r="ME1" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="IC1" s="39" t="s">
+      <c r="MF1" s="41" t="s">
         <v>380</v>
       </c>
-      <c r="ID1" s="39" t="s">
+      <c r="MG1" s="41" t="s">
         <v>381</v>
       </c>
-      <c r="IE1" s="39" t="s">
+      <c r="MH1" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="IF1" s="32" t="s">
+      <c r="MI1" s="35" t="s">
         <v>383</v>
       </c>
-      <c r="IG1" s="32" t="s">
+      <c r="MJ1" s="35" t="s">
         <v>384</v>
       </c>
-      <c r="IH1" s="32" t="s">
+      <c r="MK1" s="35" t="s">
         <v>501</v>
       </c>
-      <c r="II1" s="32" t="s">
+      <c r="ML1" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="IJ1" s="32" t="s">
+      <c r="MM1" s="35" t="s">
         <v>370</v>
       </c>
-      <c r="IK1" s="39" t="s">
+      <c r="MN1" s="41" t="s">
         <v>400</v>
       </c>
-      <c r="IL1" s="39" t="s">
+      <c r="MO1" s="41" t="s">
         <v>386</v>
       </c>
-      <c r="IM1" s="39" t="s">
+      <c r="MP1" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="IN1" s="39" t="s">
+      <c r="MQ1" s="41" t="s">
         <v>388</v>
       </c>
-      <c r="IO1" s="39" t="s">
+      <c r="MR1" s="41" t="s">
         <v>389</v>
       </c>
-      <c r="IP1" s="39" t="s">
+      <c r="MS1" s="41" t="s">
         <v>390</v>
       </c>
-      <c r="IQ1" s="39" t="s">
+      <c r="MT1" s="41" t="s">
         <v>391</v>
       </c>
-      <c r="IR1" s="39" t="s">
+      <c r="MU1" s="41" t="s">
         <v>392</v>
       </c>
-      <c r="IS1" s="39" t="s">
+      <c r="MV1" s="41" t="s">
         <v>393</v>
       </c>
-      <c r="IT1" s="39" t="s">
+      <c r="MW1" s="41" t="s">
         <v>394</v>
       </c>
-      <c r="IU1" s="39" t="s">
+      <c r="MX1" s="41" t="s">
         <v>395</v>
       </c>
-      <c r="IV1" s="39" t="s">
+      <c r="MY1" s="41" t="s">
         <v>396</v>
       </c>
-      <c r="IW1" s="39" t="s">
+      <c r="MZ1" s="41" t="s">
         <v>397</v>
       </c>
-      <c r="IX1" s="39" t="s">
+      <c r="NA1" s="41" t="s">
         <v>398</v>
       </c>
-      <c r="IY1" s="39" t="s">
+      <c r="NB1" s="41" t="s">
         <v>399</v>
       </c>
-      <c r="IZ1" s="39" t="s">
-        <v>354</v>
-      </c>
-      <c r="JA1" s="39" t="s">
-        <v>353</v>
-      </c>
-      <c r="JB1" s="40" t="s">
-        <v>402</v>
-      </c>
-      <c r="JC1" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="JD1" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="JE1" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="JF1" s="40" t="s">
-        <v>429</v>
-      </c>
-      <c r="JG1" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="JH1" s="38" t="s">
-        <v>571</v>
-      </c>
-      <c r="JI1" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="JJ1" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="JK1" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="JL1" s="40" t="s">
-        <v>407</v>
-      </c>
-      <c r="JM1" s="40" t="s">
-        <v>408</v>
-      </c>
-      <c r="JN1" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="JO1" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="JP1" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="JQ1" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="JR1" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="JS1" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="JT1" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="JU1" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="JV1" s="40" t="s">
-        <v>431</v>
-      </c>
-      <c r="JW1" s="40" t="s">
-        <v>433</v>
-      </c>
-      <c r="JX1" s="41" t="s">
-        <v>434</v>
-      </c>
-      <c r="JY1" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="JZ1" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="KA1" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="KB1" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="KC1" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="KD1" s="41" t="s">
-        <v>436</v>
-      </c>
-      <c r="KE1" s="41" t="s">
-        <v>435</v>
-      </c>
-      <c r="KF1" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="KG1" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="KH1" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="KI1" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="KJ1" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="KK1" s="41" t="s">
-        <v>442</v>
-      </c>
-      <c r="KL1" s="41" t="s">
-        <v>443</v>
-      </c>
-      <c r="KM1" s="43" t="s">
-        <v>438</v>
-      </c>
-      <c r="KN1" s="43" t="s">
-        <v>439</v>
-      </c>
-      <c r="KO1" s="44" t="s">
-        <v>440</v>
-      </c>
-      <c r="KP1" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="KQ1" s="35" t="s">
-        <v>447</v>
-      </c>
-      <c r="KR1" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="KS1" s="30"/>
-      <c r="KT1" s="45" t="s">
-        <v>453</v>
-      </c>
-      <c r="KU1" s="45" t="s">
-        <v>454</v>
-      </c>
-      <c r="KV1" s="45" t="s">
-        <v>455</v>
-      </c>
-      <c r="KW1" s="45" t="s">
-        <v>456</v>
-      </c>
-      <c r="KX1" s="45" t="s">
-        <v>457</v>
-      </c>
-      <c r="KY1" s="49" t="s">
-        <v>569</v>
-      </c>
-      <c r="KZ1" s="46" t="s">
-        <v>458</v>
-      </c>
-      <c r="LA1" s="45" t="s">
-        <v>459</v>
-      </c>
-      <c r="LB1" s="45" t="s">
-        <v>460</v>
-      </c>
-      <c r="LC1" s="45" t="s">
-        <v>461</v>
-      </c>
-      <c r="LD1" s="45" t="s">
-        <v>462</v>
-      </c>
-      <c r="LE1" s="45" t="s">
-        <v>463</v>
-      </c>
-      <c r="LF1" s="45" t="s">
-        <v>464</v>
-      </c>
-      <c r="LG1" s="45" t="s">
-        <v>465</v>
-      </c>
-      <c r="LH1" s="45" t="s">
-        <v>466</v>
-      </c>
-      <c r="LI1" s="45" t="s">
-        <v>467</v>
-      </c>
-      <c r="LJ1" s="45" t="s">
-        <v>468</v>
-      </c>
-      <c r="LK1" s="45" t="s">
-        <v>469</v>
-      </c>
-      <c r="LL1" s="45" t="s">
-        <v>470</v>
-      </c>
-      <c r="LM1" s="45" t="s">
-        <v>471</v>
-      </c>
-      <c r="LN1" s="45" t="s">
-        <v>472</v>
-      </c>
-      <c r="LO1" s="41" t="s">
-        <v>473</v>
-      </c>
-      <c r="LP1" s="41" t="s">
-        <v>474</v>
-      </c>
-      <c r="LQ1" s="41" t="s">
-        <v>475</v>
-      </c>
-      <c r="LR1" s="42" t="s">
-        <v>476</v>
-      </c>
-      <c r="LS1" s="42" t="s">
-        <v>477</v>
-      </c>
-      <c r="LT1" s="41" t="s">
-        <v>478</v>
-      </c>
-      <c r="LU1" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="LV1" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="LW1" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="LX1" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="LY1" s="42" t="s">
-        <v>483</v>
-      </c>
-      <c r="LZ1" s="42" t="s">
-        <v>484</v>
-      </c>
-      <c r="MA1" s="42" t="s">
-        <v>485</v>
-      </c>
-      <c r="MB1" s="41" t="s">
-        <v>486</v>
-      </c>
-      <c r="MC1" s="41" t="s">
-        <v>487</v>
-      </c>
-      <c r="MD1" s="43" t="s">
-        <v>488</v>
-      </c>
-      <c r="ME1" s="43" t="s">
-        <v>489</v>
-      </c>
-      <c r="MF1" s="44" t="s">
-        <v>490</v>
-      </c>
-      <c r="MG1" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="MH1" s="35" t="s">
-        <v>492</v>
-      </c>
-      <c r="MI1" s="35" t="s">
-        <v>493</v>
-      </c>
-      <c r="MJ1" s="23" t="s">
+      <c r="NC1" s="76" t="s">
+        <v>632</v>
+      </c>
+      <c r="ND1" s="76" t="s">
+        <v>633</v>
+      </c>
+      <c r="NE1" s="76" t="s">
+        <v>634</v>
+      </c>
+      <c r="NF1" s="76" t="s">
+        <v>635</v>
+      </c>
+      <c r="NG1" s="76" t="s">
+        <v>636</v>
+      </c>
+      <c r="NH1" s="76" t="s">
+        <v>637</v>
+      </c>
+      <c r="NI1" s="76" t="s">
+        <v>638</v>
+      </c>
+      <c r="NJ1" s="76" t="s">
+        <v>639</v>
+      </c>
+      <c r="NK1" s="76" t="s">
+        <v>640</v>
+      </c>
+      <c r="NL1" s="76" t="s">
+        <v>641</v>
+      </c>
+      <c r="NM1" s="76" t="s">
+        <v>642</v>
+      </c>
+      <c r="NN1" s="76" t="s">
+        <v>643</v>
+      </c>
+      <c r="NO1" s="76" t="s">
+        <v>644</v>
+      </c>
+      <c r="NP1" s="76" t="s">
+        <v>645</v>
+      </c>
+      <c r="NQ1" s="76" t="s">
+        <v>646</v>
+      </c>
+      <c r="NR1" s="76" t="s">
+        <v>647</v>
+      </c>
+      <c r="NS1" s="76" t="s">
+        <v>648</v>
+      </c>
+      <c r="NT1" s="76" t="s">
+        <v>649</v>
+      </c>
+      <c r="NU1" s="76" t="s">
+        <v>650</v>
+      </c>
+      <c r="NV1" s="76" t="s">
+        <v>651</v>
+      </c>
+      <c r="NW1" s="76" t="s">
+        <v>652</v>
+      </c>
+      <c r="NX1" s="76" t="s">
+        <v>653</v>
+      </c>
+      <c r="NY1" s="76" t="s">
+        <v>654</v>
+      </c>
+      <c r="NZ1" s="76" t="s">
+        <v>655</v>
+      </c>
+      <c r="OA1" s="76" t="s">
+        <v>656</v>
+      </c>
+      <c r="OB1" s="76" t="s">
         <v>573</v>
       </c>
-      <c r="MK1" s="30" t="s">
-        <v>548</v>
-      </c>
-      <c r="ML1" s="50" t="s">
-        <v>549</v>
-      </c>
-      <c r="MM1" s="50" t="s">
-        <v>550</v>
-      </c>
-      <c r="MN1" s="50" t="s">
-        <v>550</v>
-      </c>
-      <c r="MO1" s="51" t="s">
-        <v>551</v>
-      </c>
-      <c r="MP1" s="51" t="s">
-        <v>552</v>
-      </c>
-      <c r="MQ1" s="51" t="s">
-        <v>553</v>
-      </c>
-      <c r="MR1" s="51" t="s">
-        <v>554</v>
-      </c>
-      <c r="MS1" s="51" t="s">
-        <v>555</v>
-      </c>
-      <c r="MT1" s="51" t="s">
-        <v>556</v>
-      </c>
-      <c r="MU1" s="51" t="s">
-        <v>557</v>
-      </c>
-      <c r="MV1" s="51" t="s">
-        <v>558</v>
-      </c>
-      <c r="MW1" s="51" t="s">
-        <v>559</v>
-      </c>
-      <c r="MX1" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="MY1" s="47" t="s">
-        <v>252</v>
-      </c>
-      <c r="MZ1" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="NA1" s="47" t="s">
-        <v>256</v>
-      </c>
-      <c r="NB1" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="NC1" s="47" t="s">
-        <v>258</v>
-      </c>
-      <c r="ND1" s="47" t="s">
-        <v>259</v>
-      </c>
-      <c r="NE1" s="47" t="s">
-        <v>260</v>
-      </c>
-      <c r="NF1" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="NG1" s="47" t="s">
-        <v>262</v>
-      </c>
-      <c r="NH1" s="47" t="s">
-        <v>263</v>
-      </c>
-      <c r="NI1" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="NJ1" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="NK1" s="47" t="s">
-        <v>266</v>
-      </c>
-      <c r="NL1" s="47" t="s">
-        <v>267</v>
-      </c>
-      <c r="NM1" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="NN1" s="47" t="s">
-        <v>269</v>
-      </c>
-      <c r="NO1" s="47" t="s">
-        <v>270</v>
-      </c>
-      <c r="NP1" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="NQ1" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="NR1" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="NS1" s="47" t="s">
-        <v>274</v>
-      </c>
-      <c r="NT1" s="47" t="s">
-        <v>275</v>
-      </c>
-      <c r="NU1" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="NV1" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="NW1" s="47" t="s">
-        <v>277</v>
-      </c>
-      <c r="NX1" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="NY1" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="NZ1" s="47" t="s">
-        <v>280</v>
-      </c>
-      <c r="OA1" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="OB1" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="OC1" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="OD1" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="OE1" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="OF1" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="OG1" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="OH1" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="OI1" s="47" t="s">
-        <v>289</v>
-      </c>
-      <c r="OJ1" s="47" t="s">
-        <v>290</v>
-      </c>
-      <c r="OK1" s="47" t="s">
-        <v>291</v>
-      </c>
-      <c r="OL1" s="48" t="s">
-        <v>292</v>
-      </c>
-      <c r="OM1" s="48" t="s">
-        <v>293</v>
-      </c>
-      <c r="ON1" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="OO1" s="48" t="s">
-        <v>295</v>
-      </c>
-      <c r="OP1" s="48" t="s">
-        <v>296</v>
-      </c>
-      <c r="OQ1" s="48" t="s">
-        <v>297</v>
+      <c r="OC1" s="76" t="s">
+        <v>657</v>
+      </c>
+      <c r="OD1" s="76" t="s">
+        <v>658</v>
       </c>
     </row>
-    <row r="2" spans="1:407" s="7" customFormat="1" ht="45">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:394" s="56" customFormat="1" ht="45">
+      <c r="A2" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>581</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>534</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>534</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>535</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>536</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>519</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>520</v>
+      </c>
+      <c r="L2" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="57" t="s">
+        <v>537</v>
+      </c>
+      <c r="N2" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="56" t="s">
+        <v>625</v>
+      </c>
+      <c r="V2" s="56" t="s">
+        <v>626</v>
+      </c>
+      <c r="W2" s="56" t="s">
+        <v>625</v>
+      </c>
+      <c r="X2" s="56" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y2" s="56" t="s">
+        <v>627</v>
+      </c>
+      <c r="Z2" s="56" t="s">
+        <v>628</v>
+      </c>
+      <c r="AA2" s="56" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB2" s="56" t="s">
+        <v>626</v>
+      </c>
+      <c r="AC2" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD2" s="58" t="s">
+        <v>631</v>
+      </c>
+      <c r="AE2" s="58" t="s">
+        <v>631</v>
+      </c>
+      <c r="AF2" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG2" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH2" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI2" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ2" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK2" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>581</v>
-      </c>
-      <c r="C2" s="52" t="s">
+      <c r="AL2" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="AM2" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN2" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO2" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP2" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ2" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR2" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS2" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT2" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU2" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV2" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW2" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY2" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ2" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA2" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB2" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC2" s="56" t="s">
+        <v>300</v>
+      </c>
+      <c r="BD2" s="56" t="s">
+        <v>625</v>
+      </c>
+      <c r="BE2" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF2" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG2" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="BH2" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="BI2" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ2" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK2" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="BL2" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM2" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN2" s="58" t="s">
+        <v>629</v>
+      </c>
+      <c r="BO2" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP2" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="BQ2" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="BR2" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS2" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="BT2" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="BU2" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="BV2" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="BW2" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="BX2" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="BY2" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ2" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="CA2" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="CB2" s="60"/>
+      <c r="CC2" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="CD2" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE2" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF2" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="CG2" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="CH2" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="CI2" s="61"/>
+      <c r="CJ2" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="CK2" s="61" t="s">
+        <v>496</v>
+      </c>
+      <c r="CL2" s="61" t="s">
+        <v>412</v>
+      </c>
+      <c r="CM2" s="61" t="s">
+        <v>365</v>
+      </c>
+      <c r="CN2" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="CO2" s="61" t="s">
+        <v>366</v>
+      </c>
+      <c r="CP2" s="61"/>
+      <c r="CQ2" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="CR2" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="CS2" s="61" t="s">
+        <v>503</v>
+      </c>
+      <c r="CT2" s="61" t="s">
+        <v>503</v>
+      </c>
+      <c r="CU2" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="CV2" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="CW2" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX2" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="CY2" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="CZ2" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="DA2" s="56" t="s">
+        <v>521</v>
+      </c>
+      <c r="DB2" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="DC2" s="56" t="s">
+        <v>525</v>
+      </c>
+      <c r="DD2" s="56" t="s">
+        <v>521</v>
+      </c>
+      <c r="DE2" s="56" t="s">
+        <v>522</v>
+      </c>
+      <c r="DF2" s="56" t="s">
+        <v>523</v>
+      </c>
+      <c r="DG2" s="56" t="s">
+        <v>524</v>
+      </c>
+      <c r="DH2" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="DI2" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="DJ2" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="DK2" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL2" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="DM2" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="DN2" s="56" t="s">
+        <v>528</v>
+      </c>
+      <c r="DO2" s="56" t="s">
+        <v>526</v>
+      </c>
+      <c r="DP2" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="DQ2" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR2" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="DS2" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="DT2" s="56" t="s">
+        <v>521</v>
+      </c>
+      <c r="DU2" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="DV2" s="56" t="s">
+        <v>525</v>
+      </c>
+      <c r="DW2" s="56" t="s">
+        <v>521</v>
+      </c>
+      <c r="DX2" s="56" t="s">
+        <v>522</v>
+      </c>
+      <c r="DY2" s="56" t="s">
+        <v>523</v>
+      </c>
+      <c r="DZ2" s="56" t="s">
+        <v>524</v>
+      </c>
+      <c r="EA2" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="EB2" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="EC2" s="56" t="s">
+        <v>527</v>
+      </c>
+      <c r="ED2" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="EE2" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="EF2" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="EG2" s="56" t="s">
+        <v>528</v>
+      </c>
+      <c r="EH2" s="56" t="s">
+        <v>618</v>
+      </c>
+      <c r="EI2" s="56" t="s">
+        <v>515</v>
+      </c>
+      <c r="EJ2" s="72" t="s">
+        <v>620</v>
+      </c>
+      <c r="EK2" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="EL2" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="EM2" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="EN2" s="72" t="s">
+        <v>620</v>
+      </c>
+      <c r="EO2" s="72" t="s">
+        <v>616</v>
+      </c>
+      <c r="EP2" s="61" t="s">
+        <v>357</v>
+      </c>
+      <c r="EQ2" s="61" t="s">
+        <v>412</v>
+      </c>
+      <c r="ER2" s="72" t="s">
+        <v>364</v>
+      </c>
+      <c r="ES2" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="ET2" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="EU2" s="72" t="s">
+        <v>365</v>
+      </c>
+      <c r="EV2" s="62" t="s">
+        <v>595</v>
+      </c>
+      <c r="EW2" s="62" t="s">
+        <v>596</v>
+      </c>
+      <c r="EX2" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="EY2" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="EZ2" s="72" t="s">
+        <v>617</v>
+      </c>
+      <c r="FA2" s="62" t="s">
+        <v>597</v>
+      </c>
+      <c r="FB2" s="62" t="s">
+        <v>598</v>
+      </c>
+      <c r="FC2" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="FD2" s="62" t="s">
+        <v>325</v>
+      </c>
+      <c r="FE2" s="62" t="s">
+        <v>302</v>
+      </c>
+      <c r="FF2" s="62" t="s">
+        <v>614</v>
+      </c>
+      <c r="FG2" s="62" t="s">
+        <v>615</v>
+      </c>
+      <c r="FH2" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="FI2" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="FJ2" s="61" t="s">
+        <v>503</v>
+      </c>
+      <c r="FK2" s="61" t="s">
+        <v>503</v>
+      </c>
+      <c r="FL2" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="FM2" s="56" t="s">
+        <v>526</v>
+      </c>
+      <c r="FN2" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="FO2" s="56" t="s">
+        <v>529</v>
+      </c>
+      <c r="FP2" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="FQ2" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="FR2" s="56" t="s">
+        <v>521</v>
+      </c>
+      <c r="FS2" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="FT2" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="FU2" s="56" t="s">
+        <v>521</v>
+      </c>
+      <c r="FV2" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="FW2" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="FX2" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="FY2" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="FZ2" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="GA2" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="GB2" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="GC2" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="GD2" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="GE2" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="GF2" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="GG2" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="GH2" s="56" t="s">
+        <v>526</v>
+      </c>
+      <c r="GI2" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="GJ2" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="GK2" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="GL2" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="GM2" s="56" t="s">
+        <v>521</v>
+      </c>
+      <c r="GN2" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="GO2" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="GP2" s="56" t="s">
+        <v>521</v>
+      </c>
+      <c r="GQ2" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="GR2" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="GS2" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="GT2" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="GU2" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="GV2" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="GW2" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="GX2" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="GY2" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="GZ2" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="HA2" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="HB2" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="HC2" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="HD2" s="63" t="s">
         <v>534</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="H2" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P2" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="AG2" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="AI2" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN2" s="7" t="s">
+      <c r="HE2" s="63" t="s">
+        <v>680</v>
+      </c>
+      <c r="HF2" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="AO2" s="7" t="s">
+      <c r="HG2" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="HH2" s="61" t="s">
+        <v>621</v>
+      </c>
+      <c r="HI2" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="HJ2" s="61" t="s">
+        <v>630</v>
+      </c>
+      <c r="HK2" s="72" t="s">
+        <v>630</v>
+      </c>
+      <c r="HL2" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="HM2" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="HN2" s="64" t="s">
+        <v>404</v>
+      </c>
+      <c r="HO2" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="HP2" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="HQ2" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="HR2" s="65" t="s">
+        <v>570</v>
+      </c>
+      <c r="HS2" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="HT2" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="HU2" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="HV2" s="64" t="s">
+        <v>405</v>
+      </c>
+      <c r="HW2" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="HX2" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="HY2" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="HZ2" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="IA2" s="64" t="s">
+        <v>302</v>
+      </c>
+      <c r="IB2" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="IC2" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="ID2" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="IE2" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="IF2" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="IG2" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="IH2" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="II2" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="IJ2" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="IK2" s="67" t="s">
+        <v>451</v>
+      </c>
+      <c r="IL2" s="67" t="s">
+        <v>314</v>
+      </c>
+      <c r="IM2" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="IN2" s="66" t="s">
+        <v>315</v>
+      </c>
+      <c r="IO2" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="IP2" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="IQ2" s="66" t="s">
+        <v>437</v>
+      </c>
+      <c r="IR2" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="IS2" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="IT2" s="67" t="s">
+        <v>318</v>
+      </c>
+      <c r="IU2" s="66" t="s">
+        <v>441</v>
+      </c>
+      <c r="IV2" s="66" t="s">
+        <v>444</v>
+      </c>
+      <c r="IW2" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="IX2" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="IY2" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="IZ2" s="69" t="s">
+        <v>446</v>
+      </c>
+      <c r="JA2" s="69" t="s">
+        <v>449</v>
+      </c>
+      <c r="JB2" s="69" t="s">
+        <v>450</v>
+      </c>
+      <c r="JC2" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="JD2" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="JE2" s="69"/>
+      <c r="JF2" s="69"/>
+      <c r="JG2" s="69"/>
+      <c r="JH2" s="69"/>
+      <c r="JI2" s="69"/>
+      <c r="JJ2" s="69"/>
+      <c r="JK2" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="JL2" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="JM2" s="64" t="s">
+        <v>404</v>
+      </c>
+      <c r="JN2" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="JO2" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="JP2" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="JQ2" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="JR2" s="65" t="s">
+        <v>570</v>
+      </c>
+      <c r="JS2" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="JT2" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="JU2" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="JV2" s="64" t="s">
+        <v>405</v>
+      </c>
+      <c r="JW2" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="JX2" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="JY2" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="JZ2" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="KA2" s="64" t="s">
+        <v>302</v>
+      </c>
+      <c r="KB2" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="KC2" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="KD2" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="KE2" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="KF2" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="KG2" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="KH2" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="KI2" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="KJ2" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="KK2" s="67" t="s">
+        <v>451</v>
+      </c>
+      <c r="KL2" s="67" t="s">
+        <v>314</v>
+      </c>
+      <c r="KM2" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="KN2" s="66" t="s">
+        <v>315</v>
+      </c>
+      <c r="KO2" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="KP2" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="KQ2" s="66" t="s">
+        <v>437</v>
+      </c>
+      <c r="KR2" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="KS2" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="KT2" s="67" t="s">
+        <v>318</v>
+      </c>
+      <c r="KU2" s="66" t="s">
+        <v>441</v>
+      </c>
+      <c r="KV2" s="66" t="s">
+        <v>444</v>
+      </c>
+      <c r="KW2" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="KX2" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="KY2" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="KZ2" s="69" t="s">
+        <v>446</v>
+      </c>
+      <c r="LA2" s="69" t="s">
+        <v>449</v>
+      </c>
+      <c r="LB2" s="69" t="s">
+        <v>450</v>
+      </c>
+      <c r="LC2" s="56" t="s">
+        <v>574</v>
+      </c>
+      <c r="LD2" s="58" t="s">
+        <v>547</v>
+      </c>
+      <c r="LE2" s="74" t="s">
+        <v>310</v>
+      </c>
+      <c r="LF2" s="74" t="s">
+        <v>325</v>
+      </c>
+      <c r="LG2" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="LH2" s="75" t="s">
+        <v>560</v>
+      </c>
+      <c r="LI2" s="75" t="s">
+        <v>561</v>
+      </c>
+      <c r="LJ2" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="LK2" s="75" t="s">
+        <v>563</v>
+      </c>
+      <c r="LL2" s="75" t="s">
+        <v>564</v>
+      </c>
+      <c r="LM2" s="75" t="s">
+        <v>565</v>
+      </c>
+      <c r="LN2" s="75" t="s">
+        <v>566</v>
+      </c>
+      <c r="LO2" s="75" t="s">
+        <v>567</v>
+      </c>
+      <c r="LP2" s="75" t="s">
+        <v>568</v>
+      </c>
+      <c r="LQ2" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="LR2" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="AP2" s="7" t="s">
+      <c r="LS2" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="LT2" s="61" t="s">
+        <v>500</v>
+      </c>
+      <c r="LU2" s="61" t="s">
+        <v>356</v>
+      </c>
+      <c r="LV2" s="61" t="s">
+        <v>357</v>
+      </c>
+      <c r="LW2" s="61" t="s">
+        <v>358</v>
+      </c>
+      <c r="LX2" s="61" t="s">
+        <v>359</v>
+      </c>
+      <c r="LY2" s="61" t="s">
+        <v>360</v>
+      </c>
+      <c r="LZ2" s="61" t="s">
+        <v>361</v>
+      </c>
+      <c r="MA2" s="61" t="s">
+        <v>362</v>
+      </c>
+      <c r="MB2" s="61"/>
+      <c r="MC2" s="61" t="s">
+        <v>363</v>
+      </c>
+      <c r="MD2" s="61" t="s">
+        <v>364</v>
+      </c>
+      <c r="ME2" s="61" t="s">
+        <v>365</v>
+      </c>
+      <c r="MF2" s="61" t="s">
+        <v>366</v>
+      </c>
+      <c r="MG2" s="61"/>
+      <c r="MH2" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="AQ2" s="7" t="s">
+      <c r="MI2" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="MJ2" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="MK2" s="61" t="s">
+        <v>503</v>
+      </c>
+      <c r="ML2" s="61" t="s">
+        <v>503</v>
+      </c>
+      <c r="MM2" s="56" t="s">
+        <v>385</v>
+      </c>
+      <c r="MN2" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="MO2" s="61"/>
+      <c r="MP2" s="61" t="s">
+        <v>356</v>
+      </c>
+      <c r="MQ2" s="61" t="s">
+        <v>357</v>
+      </c>
+      <c r="MR2" s="61" t="s">
+        <v>358</v>
+      </c>
+      <c r="MS2" s="61" t="s">
+        <v>359</v>
+      </c>
+      <c r="MT2" s="61" t="s">
+        <v>360</v>
+      </c>
+      <c r="MU2" s="61" t="s">
+        <v>361</v>
+      </c>
+      <c r="MV2" s="61" t="s">
+        <v>362</v>
+      </c>
+      <c r="MW2" s="61"/>
+      <c r="MX2" s="61" t="s">
+        <v>363</v>
+      </c>
+      <c r="MY2" s="61" t="s">
+        <v>364</v>
+      </c>
+      <c r="MZ2" s="61" t="s">
+        <v>365</v>
+      </c>
+      <c r="NA2" s="61" t="s">
+        <v>366</v>
+      </c>
+      <c r="NB2" s="61"/>
+      <c r="NC2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AR2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS2" s="7" t="s">
+      <c r="ND2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AT2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU2" s="7" t="s">
+      <c r="NE2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="NF2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AV2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AW2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AX2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AY2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AZ2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="BC2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD2" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="BE2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="BF2" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="BG2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="BH2" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="BI2" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="BJ2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="BK2" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="BL2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="BM2" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="BN2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="BP2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR2" s="20" t="s">
-        <v>544</v>
-      </c>
-      <c r="BS2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="BT2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="BU2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="BV2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BW2" s="7" t="s">
+      <c r="NG2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BX2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="BY2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="BZ2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="CA2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="CB2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="CC2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="CD2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="CE2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="CF2" s="4"/>
-      <c r="CG2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="CH2" s="20" t="s">
-        <v>531</v>
-      </c>
-      <c r="CI2" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="CJ2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="CK2" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="CL2" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="CM2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="CN2" s="10"/>
-      <c r="CO2" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="CP2" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="CQ2" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="CR2" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="CS2" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="CT2" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="CU2" s="10"/>
-      <c r="CV2" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="CW2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="CX2" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="CY2" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="CZ2" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="DA2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="DB2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="DC2" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DD2" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="DE2" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="DF2" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="DG2" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="DH2" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="DI2" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="DJ2" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="DK2" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="DL2" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="DM2" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="DN2" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="DO2" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="DP2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="DQ2" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="DR2" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="DS2" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="DT2" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="DU2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="DV2" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="DW2" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="DX2" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="DY2" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="DZ2" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="EA2" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="EB2" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="EC2" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="ED2" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="EE2" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="EF2" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="EG2" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="EH2" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="EI2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="EJ2" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="EK2" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="EL2" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="EM2" s="20" t="s">
-        <v>532</v>
-      </c>
-      <c r="EN2" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="EO2" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="EP2" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="EQ2" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="ER2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="ES2" s="10"/>
-      <c r="ET2" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="EU2" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="EV2" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="EW2" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="EX2" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="EY2" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="EZ2" s="10"/>
-      <c r="FA2" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="FB2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="FC2" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="FD2" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="FE2" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="FF2" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="FG2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="FH2" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="FI2" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="FJ2" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="FK2" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="FL2" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="FM2" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="FN2" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="FO2" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="FP2" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="FQ2" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="FR2" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="FS2" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="FT2" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="FU2" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="FV2" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="FW2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="FX2" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="FY2" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="FZ2" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="GA2" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="GB2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="GC2" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="GD2" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="GE2" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="GF2" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="GG2" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="GH2" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="GI2" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="GJ2" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="GK2" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="GL2" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="GM2" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="GN2" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="GO2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="GP2" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="GQ2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="GR2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="GS2" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="GT2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="GU2" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="GV2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="GW2" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="GX2" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="GY2" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="GZ2" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="HA2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="HB2" s="21" t="s">
+      <c r="NH2" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="NI2" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="NJ2" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="NK2" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="NL2" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="NM2" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="NN2" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="NO2" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="NP2" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="NQ2" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="HC2" s="21" t="s">
+      <c r="NR2" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="NS2" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="HD2" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="HE2" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="HF2" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="HG2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="HH2" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="HI2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="HJ2" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="HK2" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="HL2" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="HM2" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="HN2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="HO2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="HP2" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="HQ2" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="HR2" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="HS2" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="HT2" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="HU2" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="HV2" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="HW2" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="HX2" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="HY2" s="10"/>
-      <c r="HZ2" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="IA2" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="IB2" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="IC2" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="ID2" s="10"/>
-      <c r="IE2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="IF2" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="IG2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="IH2" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="II2" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="IJ2" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="IK2" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="IL2" s="10"/>
-      <c r="IM2" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="IN2" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="IO2" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="IP2" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="IQ2" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="IR2" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="IS2" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="IT2" s="10"/>
-      <c r="IU2" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="IV2" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="IW2" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="IX2" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="IY2" s="10"/>
-      <c r="IZ2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="JA2" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="JB2" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="JC2" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="JD2" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="JE2" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="JF2" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="JG2" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="JH2" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="JI2" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="JJ2" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="JK2" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="JL2" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="JM2" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="JN2" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="JO2" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="JP2" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="JQ2" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="JR2" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="JS2" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="JT2" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="JU2" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="JV2" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="JW2" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="JX2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="JY2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="JZ2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="KA2" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="KB2" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="KC2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="KD2" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="KE2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="KF2" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="KG2" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="KH2" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="KI2" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="KJ2" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="KK2" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="KL2" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="KM2" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="KN2" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="KO2" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="KP2" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="KQ2" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="KR2" s="18" t="s">
-        <v>450</v>
-      </c>
-      <c r="KS2" s="18"/>
-      <c r="KT2" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="KU2" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="KV2" s="19" t="s">
-        <v>404</v>
-      </c>
-      <c r="KW2" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="KX2" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="KY2" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="KZ2" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="LA2" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="LB2" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="LC2" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="LD2" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="LE2" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="LF2" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="LG2" s="19" t="s">
-        <v>311</v>
-      </c>
-      <c r="LH2" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="LI2" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="LJ2" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="LK2" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="LL2" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="LM2" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="LN2" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="LO2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="LP2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="LQ2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="LR2" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="LS2" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="LT2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="LU2" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="LV2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="LW2" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="LX2" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="LY2" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="LZ2" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="MA2" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="MB2" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="MC2" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="MD2" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="ME2" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="MF2" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="MG2" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="MH2" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="MI2" s="18" t="s">
-        <v>450</v>
-      </c>
-      <c r="MJ2" s="52" t="s">
-        <v>574</v>
-      </c>
-      <c r="MK2" s="20" t="s">
-        <v>547</v>
-      </c>
-      <c r="ML2" s="50" t="s">
-        <v>310</v>
-      </c>
-      <c r="MM2" s="50" t="s">
-        <v>325</v>
-      </c>
-      <c r="MN2" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="MO2" s="51" t="s">
-        <v>560</v>
-      </c>
-      <c r="MP2" s="51" t="s">
-        <v>561</v>
-      </c>
-      <c r="MQ2" s="51" t="s">
-        <v>562</v>
-      </c>
-      <c r="MR2" s="51" t="s">
-        <v>563</v>
-      </c>
-      <c r="MS2" s="51" t="s">
-        <v>564</v>
-      </c>
-      <c r="MT2" s="51" t="s">
-        <v>565</v>
-      </c>
-      <c r="MU2" s="51" t="s">
-        <v>566</v>
-      </c>
-      <c r="MV2" s="51" t="s">
-        <v>567</v>
-      </c>
-      <c r="MW2" s="51" t="s">
-        <v>568</v>
-      </c>
-      <c r="MX2" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="MY2" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="MZ2" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="NA2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="NB2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="NC2" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="ND2" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="NE2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="NF2" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="NG2" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="NH2" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="NI2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="NJ2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="NK2" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="NL2" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="NM2" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="NN2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="NO2" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="NP2" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="NQ2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="NR2" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="NS2" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="NT2" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="NU2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="NV2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="NW2" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="NX2" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="NY2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="NZ2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="OA2" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="OB2" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="OC2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="OD2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="OE2" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="OF2" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="OG2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="OH2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="OI2" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="OJ2" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="OK2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="OL2" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="OM2" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="ON2" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="OO2" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="OP2" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="OQ2" s="7" t="s">
-        <v>342</v>
+      <c r="NT2" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="NU2" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="NV2" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="NW2" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="NX2" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="NY2" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="NZ2" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="OA2" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="OB2" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="OC2" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="OD2" s="1" t="s">
+        <v>676</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="BF2" r:id="rId1"/>
-    <hyperlink ref="BM2" r:id="rId2"/>
-    <hyperlink ref="AL2" r:id="rId3"/>
-    <hyperlink ref="GX2" r:id="rId4"/>
-    <hyperlink ref="M2" r:id="rId5" display="voip81@test.com"/>
-    <hyperlink ref="BU2" r:id="rId6"/>
+    <hyperlink ref="BB2" r:id="rId1"/>
+    <hyperlink ref="BI2" r:id="rId2"/>
+    <hyperlink ref="AH2" r:id="rId3"/>
+    <hyperlink ref="M2" r:id="rId4" display="voip81@test.com"/>
+    <hyperlink ref="BQ2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>